--- a/ICS462/ICS462_Prog_Assign_6_Analysis.xlsx
+++ b/ICS462/ICS462_Prog_Assign_6_Analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishers\workspace\_Summer2019\ICS462\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D16DA15-5C2C-476B-BE61-AEC72DE6C145}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="9435" yWindow="1410" windowWidth="18630" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -357,12 +358,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,44 +451,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,383 +730,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:6" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="11" t="s">
         <v>58</v>
       </c>
     </row>
